--- a/ta-lib.atr/sample.xlsx
+++ b/ta-lib.atr/sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="15">
   <si>
     <t>Mon</t>
   </si>
@@ -58,13 +58,19 @@
   <si>
     <t>I H - Cp I</t>
   </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
+    <numFmt numFmtId="178" formatCode="0.000000000000000_);[Red]\(0.000000000000000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -239,9 +245,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -260,20 +266,17 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -284,21 +287,30 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +686,7 @@
   <dimension ref="B2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J34" sqref="J5:J34"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -683,7 +695,8 @@
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
     <col min="4" max="7" width="7" style="3" customWidth="1"/>
     <col min="8" max="9" width="8.1796875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="7" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19" style="27" customWidth="1"/>
     <col min="12" max="12" width="1.453125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
@@ -696,7 +709,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="2:12" ht="13" x14ac:dyDescent="0.3">
@@ -704,40 +717,40 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>40269</v>
       </c>
       <c r="D5" s="11">
@@ -749,21 +762,20 @@
       <c r="F5" s="11">
         <v>48.16</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <f>D5-E5</f>
         <v>0.91000000000000369</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="15">
-        <f>MAX(G5:I5)</f>
-        <v>0.91000000000000369</v>
-      </c>
-      <c r="K5" s="12"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>40273</v>
       </c>
       <c r="D6" s="11">
@@ -775,7 +787,7 @@
       <c r="F6" s="11">
         <v>48.61</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f>D6-E6</f>
         <v>0.57999999999999829</v>
       </c>
@@ -791,11 +803,13 @@
         <f>MAX(G6:I6)</f>
         <v>0.57999999999999829</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>40274</v>
       </c>
       <c r="D7" s="11">
@@ -807,7 +821,7 @@
       <c r="F7" s="11">
         <v>48.75</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <f t="shared" ref="G7:G34" si="0">D7-E7</f>
         <v>0.50999999999999801</v>
       </c>
@@ -823,11 +837,13 @@
         <f t="shared" ref="J7:J34" si="3">MAX(G7:I7)</f>
         <v>0.50999999999999801</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>40275</v>
       </c>
       <c r="D8" s="11">
@@ -839,7 +855,7 @@
       <c r="F8" s="11">
         <v>48.63</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -855,11 +871,13 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>40276</v>
       </c>
       <c r="D9" s="11">
@@ -871,7 +889,7 @@
       <c r="F9" s="11">
         <v>48.74</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>0.57999999999999829</v>
       </c>
@@ -887,12 +905,14 @@
         <f t="shared" si="3"/>
         <v>0.57999999999999829</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>40277</v>
       </c>
       <c r="D10" s="11">
@@ -904,7 +924,7 @@
       <c r="F10" s="11">
         <v>49.03</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <f t="shared" si="0"/>
         <v>0.40999999999999659</v>
       </c>
@@ -920,12 +940,14 @@
         <f t="shared" si="3"/>
         <v>0.40999999999999659</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>40280</v>
       </c>
       <c r="D11" s="11">
@@ -937,7 +959,7 @@
       <c r="F11" s="11">
         <v>49.07</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <f t="shared" si="0"/>
         <v>0.26000000000000512</v>
       </c>
@@ -949,16 +971,18 @@
         <f t="shared" si="2"/>
         <v>9.0000000000003411E-2</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <f t="shared" si="3"/>
         <v>0.26000000000000512</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>40281</v>
       </c>
       <c r="D12" s="11">
@@ -970,7 +994,7 @@
       <c r="F12" s="11">
         <v>49.32</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <f t="shared" si="0"/>
         <v>0.49000000000000199</v>
       </c>
@@ -986,12 +1010,14 @@
         <f t="shared" si="3"/>
         <v>0.49000000000000199</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>40282</v>
       </c>
       <c r="D13" s="11">
@@ -1003,11 +1029,11 @@
       <c r="F13" s="11">
         <v>49.91</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <f t="shared" si="0"/>
         <v>0.42000000000000171</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f t="shared" si="1"/>
         <v>0.60000000000000142</v>
       </c>
@@ -1015,16 +1041,18 @@
         <f t="shared" si="2"/>
         <v>0.17999999999999972</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <f t="shared" si="3"/>
         <v>0.60000000000000142</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>40283</v>
       </c>
       <c r="D14" s="11">
@@ -1036,7 +1064,7 @@
       <c r="F14" s="11">
         <v>50.13</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="0"/>
         <v>0.32000000000000028</v>
       </c>
@@ -1052,12 +1080,14 @@
         <f t="shared" si="3"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>40284</v>
       </c>
       <c r="D15" s="11">
@@ -1069,7 +1099,7 @@
       <c r="F15" s="11">
         <v>49.53</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <f t="shared" si="0"/>
         <v>0.9199999999999946</v>
       </c>
@@ -1077,20 +1107,22 @@
         <f t="shared" si="1"/>
         <v>1.0000000000005116E-2</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <f t="shared" si="2"/>
         <v>0.92999999999999972</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <f t="shared" si="3"/>
         <v>0.92999999999999972</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>40287</v>
       </c>
       <c r="D16" s="11">
@@ -1102,7 +1134,7 @@
       <c r="F16" s="11">
         <v>49.5</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <f t="shared" si="0"/>
         <v>0.75999999999999801</v>
       </c>
@@ -1118,12 +1150,14 @@
         <f t="shared" si="3"/>
         <v>0.75999999999999801</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>40288</v>
       </c>
       <c r="D17" s="11">
@@ -1135,7 +1169,7 @@
       <c r="F17" s="11">
         <v>49.75</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f t="shared" si="0"/>
         <v>0.45000000000000284</v>
       </c>
@@ -1151,12 +1185,14 @@
         <f t="shared" si="3"/>
         <v>0.45000000000000284</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>40289</v>
       </c>
       <c r="D18" s="11">
@@ -1168,7 +1204,7 @@
       <c r="F18" s="11">
         <v>50.03</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <f t="shared" si="0"/>
         <v>0.46000000000000085</v>
       </c>
@@ -1184,9 +1220,8 @@
         <f t="shared" si="3"/>
         <v>0.46000000000000085</v>
       </c>
-      <c r="K18" s="26">
-        <f>AVERAGE(J5:J18)</f>
-        <v>0.5542857142857146</v>
+      <c r="K18" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="L18" s="5"/>
     </row>
@@ -1194,7 +1229,7 @@
       <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>40290</v>
       </c>
       <c r="D19" s="11">
@@ -1206,7 +1241,7 @@
       <c r="F19" s="11">
         <v>50.31</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <f t="shared" si="0"/>
         <v>1.1000000000000014</v>
       </c>
@@ -1222,9 +1257,9 @@
         <f t="shared" si="3"/>
         <v>1.1000000000000014</v>
       </c>
-      <c r="K19" s="12">
-        <f>(K18*13+J19)/14</f>
-        <v>0.59326530612244943</v>
+      <c r="K19" s="29">
+        <f>AVERAGE(J6:J19)</f>
+        <v>0.56785714285714306</v>
       </c>
       <c r="L19" s="5"/>
     </row>
@@ -1232,7 +1267,7 @@
       <c r="B20" s="10">
         <v>2</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>40291</v>
       </c>
       <c r="D20" s="11">
@@ -1244,7 +1279,7 @@
       <c r="F20" s="11">
         <v>50.52</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <f t="shared" si="0"/>
         <v>0.47999999999999687</v>
       </c>
@@ -1260,9 +1295,9 @@
         <f t="shared" si="3"/>
         <v>0.47999999999999687</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="28">
         <f t="shared" ref="K20:K34" si="4">(K19*13+J20)/14</f>
-        <v>0.58517492711370278</v>
+        <v>0.56158163265306116</v>
       </c>
       <c r="L20" s="5"/>
     </row>
@@ -1270,7 +1305,7 @@
       <c r="B21" s="10">
         <v>3</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>40294</v>
       </c>
       <c r="D21" s="11">
@@ -1282,7 +1317,7 @@
       <c r="F21" s="11">
         <v>50.41</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <f t="shared" si="0"/>
         <v>0.35000000000000142</v>
       </c>
@@ -1298,9 +1333,9 @@
         <f t="shared" si="3"/>
         <v>0.35000000000000142</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="28">
         <f t="shared" si="4"/>
-        <v>0.56837671803415268</v>
+        <v>0.54646865889212826</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -1308,7 +1343,7 @@
       <c r="B22" s="10">
         <v>4</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>40295</v>
       </c>
       <c r="D22" s="11">
@@ -1320,7 +1355,7 @@
       <c r="F22" s="11">
         <v>49.34</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <f t="shared" si="0"/>
         <v>1.2199999999999989</v>
       </c>
@@ -1336,9 +1371,9 @@
         <f t="shared" si="3"/>
         <v>1.2199999999999989</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="28">
         <f t="shared" si="4"/>
-        <v>0.61492123817457034</v>
+        <v>0.59457804039983331</v>
       </c>
       <c r="L22" s="5"/>
     </row>
@@ -1346,7 +1381,7 @@
       <c r="B23" s="10">
         <v>5</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>40296</v>
       </c>
       <c r="D23" s="11">
@@ -1358,7 +1393,7 @@
       <c r="F23" s="11">
         <v>49.37</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <f t="shared" si="0"/>
         <v>0.65000000000000568</v>
       </c>
@@ -1374,9 +1409,9 @@
         <f t="shared" si="3"/>
         <v>0.65000000000000568</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="28">
         <f t="shared" si="4"/>
-        <v>0.61742686401924429</v>
+        <v>0.59853675179984556</v>
       </c>
       <c r="L23" s="5"/>
     </row>
@@ -1384,7 +1419,7 @@
       <c r="B24" s="10">
         <v>6</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>40297</v>
       </c>
       <c r="D24" s="11">
@@ -1396,7 +1431,7 @@
       <c r="F24" s="11">
         <v>50.23</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <f t="shared" si="0"/>
         <v>0.71999999999999886</v>
       </c>
@@ -1412,16 +1447,16 @@
         <f t="shared" si="3"/>
         <v>0.96000000000000085</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="28">
         <f t="shared" si="4"/>
-        <v>0.64189637373215547</v>
+        <v>0.6243555552427138</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>7</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>40298</v>
       </c>
       <c r="D25" s="11">
@@ -1433,7 +1468,7 @@
       <c r="F25" s="11">
         <v>49.24</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <f t="shared" si="0"/>
         <v>1.0899999999999963</v>
       </c>
@@ -1449,16 +1484,16 @@
         <f t="shared" si="3"/>
         <v>1.0899999999999963</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="28">
         <f t="shared" si="4"/>
-        <v>0.67390377560842984</v>
+        <v>0.65761587272537692</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>8</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>40301</v>
       </c>
       <c r="D26" s="11">
@@ -1470,7 +1505,7 @@
       <c r="F26" s="11">
         <v>49.93</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <f t="shared" si="0"/>
         <v>0.74000000000000199</v>
       </c>
@@ -1486,16 +1521,16 @@
         <f t="shared" si="3"/>
         <v>0.92999999999999972</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="28">
         <f t="shared" si="4"/>
-        <v>0.69219636306497045</v>
+        <v>0.67707188181642142</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>9</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>40302</v>
       </c>
       <c r="D27" s="11">
@@ -1507,7 +1542,7 @@
       <c r="F27" s="11">
         <v>48.43</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>1.240000000000002</v>
       </c>
@@ -1523,16 +1558,16 @@
         <f t="shared" si="3"/>
         <v>1.8500000000000014</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="28">
         <f t="shared" si="4"/>
-        <v>0.7748966228460441</v>
+        <v>0.76085246168667708</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>10</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>40303</v>
       </c>
       <c r="D28" s="11">
@@ -1544,7 +1579,7 @@
       <c r="F28" s="11">
         <v>48.18</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0.85999999999999943</v>
       </c>
@@ -1560,16 +1595,16 @@
         <f t="shared" si="3"/>
         <v>0.85999999999999943</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="28">
         <f t="shared" si="4"/>
-        <v>0.78097543549989801</v>
+        <v>0.76793442870905726</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>11</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>40304</v>
       </c>
       <c r="D29" s="11">
@@ -1581,7 +1616,7 @@
       <c r="F29" s="11">
         <v>46.57</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>6.7700000000000031</v>
       </c>
@@ -1597,16 +1632,16 @@
         <f t="shared" si="3"/>
         <v>6.7700000000000031</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="28">
         <f t="shared" si="4"/>
-        <v>1.2087629043927628</v>
+        <v>1.1966533980869818</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>12</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>40305</v>
       </c>
       <c r="D30" s="11">
@@ -1618,7 +1653,7 @@
       <c r="F30" s="11">
         <v>45.41</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <f t="shared" si="0"/>
         <v>2.519999999999996</v>
       </c>
@@ -1634,16 +1669,16 @@
         <f t="shared" si="3"/>
         <v>2.519999999999996</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="28">
         <f t="shared" si="4"/>
-        <v>1.3024226969361368</v>
+        <v>1.2911781553664829</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>13</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>40308</v>
       </c>
       <c r="D31" s="11">
@@ -1655,7 +1690,7 @@
       <c r="F31" s="11">
         <v>47.77</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>0.48999999999999488</v>
       </c>
@@ -1671,16 +1706,16 @@
         <f t="shared" si="3"/>
         <v>2.3900000000000006</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="28">
         <f t="shared" si="4"/>
-        <v>1.3801067900121269</v>
+        <v>1.3696654299831628</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>14</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>40309</v>
       </c>
       <c r="D32" s="11">
@@ -1692,7 +1727,7 @@
       <c r="F32" s="11">
         <v>47.72</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <f t="shared" si="0"/>
         <v>1.1899999999999977</v>
       </c>
@@ -1708,16 +1743,16 @@
         <f t="shared" si="3"/>
         <v>1.1899999999999977</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="28">
         <f t="shared" si="4"/>
-        <v>1.3665277335826891</v>
+        <v>1.3568321849843652</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>15</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>40310</v>
       </c>
       <c r="D33" s="11">
@@ -1729,7 +1764,7 @@
       <c r="F33" s="11">
         <v>48.62</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <f t="shared" si="0"/>
         <v>0.75999999999999801</v>
       </c>
@@ -1745,52 +1780,52 @@
         <f t="shared" si="3"/>
         <v>0.93999999999999773</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="28">
         <f t="shared" si="4"/>
-        <v>1.3360614668982111</v>
+        <v>1.3270584574854818</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>16</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="23">
         <v>40311</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>48.79</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>47.73</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="19">
         <v>47.85</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="24">
         <f t="shared" si="0"/>
         <v>1.0600000000000023</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <f t="shared" si="1"/>
         <v>0.17000000000000171</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="20">
         <f t="shared" si="2"/>
         <v>0.89000000000000057</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="20">
         <f t="shared" si="3"/>
         <v>1.0600000000000023</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="30">
         <f t="shared" si="4"/>
-        <v>1.3163427906911962</v>
+        <v>1.3079828533793763</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1812,7 +1847,7 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="21">
         <v>40659</v>
       </c>
       <c r="C1">
@@ -1835,7 +1870,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>40660</v>
       </c>
       <c r="C2">
@@ -1858,7 +1893,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>40661</v>
       </c>
       <c r="C3">
@@ -1881,7 +1916,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <v>40662</v>
       </c>
       <c r="C4">
@@ -1904,7 +1939,7 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>40665</v>
       </c>
       <c r="C5">
@@ -1927,7 +1962,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>40666</v>
       </c>
       <c r="C6">
@@ -1950,7 +1985,7 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>40667</v>
       </c>
       <c r="C7">
@@ -1973,7 +2008,7 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>40668</v>
       </c>
       <c r="C8">
@@ -1996,7 +2031,7 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>40669</v>
       </c>
       <c r="C9">
@@ -2019,7 +2054,7 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>40672</v>
       </c>
       <c r="C10">
@@ -2042,7 +2077,7 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>40673</v>
       </c>
       <c r="C11">
@@ -2065,7 +2100,7 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>40674</v>
       </c>
       <c r="C12">
@@ -2088,7 +2123,7 @@
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>40675</v>
       </c>
       <c r="C13">
@@ -2111,7 +2146,7 @@
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>40676</v>
       </c>
       <c r="C14">
@@ -2134,7 +2169,7 @@
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>40679</v>
       </c>
       <c r="C15">
@@ -2157,7 +2192,7 @@
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <v>40680</v>
       </c>
       <c r="C16">
@@ -2180,7 +2215,7 @@
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>40681</v>
       </c>
       <c r="C17">
@@ -2203,7 +2238,7 @@
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>40682</v>
       </c>
       <c r="C18">
@@ -2226,7 +2261,7 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>40683</v>
       </c>
       <c r="C19">
@@ -2249,7 +2284,7 @@
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>40686</v>
       </c>
       <c r="C20">
@@ -2272,7 +2307,7 @@
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <v>40687</v>
       </c>
       <c r="C21">
@@ -2295,7 +2330,7 @@
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>40688</v>
       </c>
       <c r="C22">
@@ -2318,7 +2353,7 @@
       <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>40689</v>
       </c>
       <c r="C23">
@@ -2341,7 +2376,7 @@
       <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="21">
         <v>40690</v>
       </c>
       <c r="C24">
@@ -2364,7 +2399,7 @@
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="21">
         <v>40694</v>
       </c>
       <c r="C25">
@@ -2387,7 +2422,7 @@
       <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="21">
         <v>40695</v>
       </c>
       <c r="C26">
@@ -2410,7 +2445,7 @@
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="21">
         <v>40696</v>
       </c>
       <c r="C27">
@@ -2433,7 +2468,7 @@
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="21">
         <v>40697</v>
       </c>
       <c r="C28">
@@ -2456,7 +2491,7 @@
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="21">
         <v>40700</v>
       </c>
       <c r="C29">
@@ -2479,7 +2514,7 @@
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="21">
         <v>40701</v>
       </c>
       <c r="C30">
@@ -2502,7 +2537,7 @@
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>40702</v>
       </c>
       <c r="C31">
@@ -2525,7 +2560,7 @@
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="21">
         <v>40703</v>
       </c>
       <c r="C32">
@@ -2548,7 +2583,7 @@
       <c r="A33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="21">
         <v>40704</v>
       </c>
       <c r="C33">
@@ -2571,7 +2606,7 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="21">
         <v>40707</v>
       </c>
       <c r="C34">
@@ -2594,7 +2629,7 @@
       <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="21">
         <v>40708</v>
       </c>
       <c r="C35">
@@ -2617,7 +2652,7 @@
       <c r="A36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="21">
         <v>40709</v>
       </c>
       <c r="C36">
@@ -2640,7 +2675,7 @@
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="21">
         <v>40710</v>
       </c>
       <c r="C37">
@@ -2663,7 +2698,7 @@
       <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="21">
         <v>40711</v>
       </c>
       <c r="C38">
@@ -2686,7 +2721,7 @@
       <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="21">
         <v>40714</v>
       </c>
       <c r="C39">
@@ -2709,7 +2744,7 @@
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="21">
         <v>40715</v>
       </c>
       <c r="C40">
@@ -2732,7 +2767,7 @@
       <c r="A41" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="21">
         <v>40716</v>
       </c>
       <c r="C41">
@@ -2755,7 +2790,7 @@
       <c r="A42" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="21">
         <v>40717</v>
       </c>
       <c r="C42">
@@ -2778,7 +2813,7 @@
       <c r="A43" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="21">
         <v>40718</v>
       </c>
       <c r="C43">
@@ -2801,7 +2836,7 @@
       <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="21">
         <v>40721</v>
       </c>
       <c r="C44">
@@ -2824,7 +2859,7 @@
       <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="21">
         <v>40722</v>
       </c>
       <c r="C45">
@@ -2847,7 +2882,7 @@
       <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="21">
         <v>40723</v>
       </c>
       <c r="C46">
@@ -2870,7 +2905,7 @@
       <c r="A47" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="21">
         <v>40724</v>
       </c>
       <c r="C47">
@@ -2893,7 +2928,7 @@
       <c r="A48" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="21">
         <v>40725</v>
       </c>
       <c r="C48">
@@ -2916,7 +2951,7 @@
       <c r="A49" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="21">
         <v>40729</v>
       </c>
       <c r="C49">
@@ -2939,7 +2974,7 @@
       <c r="A50" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="21">
         <v>40730</v>
       </c>
       <c r="C50">
@@ -2962,7 +2997,7 @@
       <c r="A51" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="21">
         <v>40731</v>
       </c>
       <c r="C51">
@@ -2985,7 +3020,7 @@
       <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="21">
         <v>40732</v>
       </c>
       <c r="C52">
@@ -3008,7 +3043,7 @@
       <c r="A53" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="21">
         <v>40735</v>
       </c>
       <c r="C53">
@@ -3031,7 +3066,7 @@
       <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="21">
         <v>40736</v>
       </c>
       <c r="C54">
@@ -3054,7 +3089,7 @@
       <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="21">
         <v>40737</v>
       </c>
       <c r="C55">
@@ -3077,7 +3112,7 @@
       <c r="A56" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="21">
         <v>40738</v>
       </c>
       <c r="C56">
@@ -3100,7 +3135,7 @@
       <c r="A57" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="21">
         <v>40739</v>
       </c>
       <c r="C57">
@@ -3123,7 +3158,7 @@
       <c r="A58" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="21">
         <v>40742</v>
       </c>
       <c r="C58">
@@ -3146,7 +3181,7 @@
       <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="21">
         <v>40743</v>
       </c>
       <c r="C59">
@@ -3169,7 +3204,7 @@
       <c r="A60" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="21">
         <v>40744</v>
       </c>
       <c r="C60">
@@ -3192,7 +3227,7 @@
       <c r="A61" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="21">
         <v>40745</v>
       </c>
       <c r="C61">
@@ -3215,7 +3250,7 @@
       <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="21">
         <v>40746</v>
       </c>
       <c r="C62">
@@ -3238,7 +3273,7 @@
       <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="21">
         <v>40749</v>
       </c>
       <c r="C63">
@@ -3261,7 +3296,7 @@
       <c r="A64" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="21">
         <v>40750</v>
       </c>
       <c r="C64">
@@ -3284,7 +3319,7 @@
       <c r="A65" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="21">
         <v>40751</v>
       </c>
       <c r="C65">
@@ -3307,7 +3342,7 @@
       <c r="A66" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="21">
         <v>40752</v>
       </c>
       <c r="C66">
@@ -3330,7 +3365,7 @@
       <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="21">
         <v>40753</v>
       </c>
       <c r="C67">
@@ -3353,7 +3388,7 @@
       <c r="A68" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="21">
         <v>40756</v>
       </c>
       <c r="C68">
@@ -3376,7 +3411,7 @@
       <c r="A69" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="21">
         <v>40757</v>
       </c>
       <c r="C69">
